--- a/TEL/TEL_Event/Sample/Import_HealthSolutions.xlsx
+++ b/TEL/TEL_Event/Sample/Import_HealthSolutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一加科技\客製開發\TEL\TEL_Event\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E029EF0F-0C2B-4FFF-A49D-0211739905CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37A3188-B31E-4097-BE0E-009FF70830B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F9292AEA-AC40-4863-8A33-7B3ACD39EA2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{F9292AEA-AC40-4863-8A33-7B3ACD39EA2A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -173,6 +173,111 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E85987D9-8892-4897-AF7B-338641D038A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rick Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>必填欄位
+若沒有選項則填無</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{738A383D-098E-4119-A2E1-716E4AE1D0F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rick Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>必填欄位
+若沒有選項則填無</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{9C740CDD-1651-44B2-BEB4-89873B187B96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rick Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>必填欄位
+若沒有選項則填無</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H1" authorId="0" shapeId="0" xr:uid="{6C3B7F65-C66A-4254-BA6C-19A72C104E20}">
       <text>
         <r>
@@ -253,10 +358,6 @@
   </si>
   <si>
     <t>地區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>費用&amp;方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,6 +382,10 @@
   </si>
   <si>
     <t>人數上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>費用方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,22 +799,22 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,25 +822,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
